--- a/stability_analysis/data/results/EIG_IEEE_9_headers.xlsx
+++ b/stability_analysis/data/results/EIG_IEEE_9_headers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,333 +462,333 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>94.91805560761412</v>
+        <v>-0.1424849805505211</v>
       </c>
       <c r="D2" t="n">
-        <v>-1173.349099055694</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>186.7443090871357</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08063158688862514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>94.91805560761412</v>
+        <v>-0.1425493473042732</v>
       </c>
       <c r="D3" t="n">
-        <v>1173.349099055694</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186.7443090871357</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.08063158688862514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.81213049000772</v>
+        <v>-0.1664933328603274</v>
       </c>
       <c r="D4" t="n">
-        <v>1262.171034752485</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8807592082704</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01569493327291636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.81213049000772</v>
+        <v>-0.3488096140740651</v>
       </c>
       <c r="D5" t="n">
-        <v>-1262.171034752485</v>
+        <v>-0.5722722726898466</v>
       </c>
       <c r="E5" t="n">
-        <v>200.8807592082704</v>
+        <v>0.09107996099302215</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01569493327291636</v>
+        <v>0.5204585181534811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1420037404163566</v>
+        <v>-0.3488096140740651</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5722722726898466</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.09107996099302215</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.5204585181534811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.142363780868526</v>
+        <v>-0.4429215356359922</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.5789361568918191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.09214055110395807</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.6076281145133614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2126205373039095</v>
+        <v>-0.4429215356359922</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.5789361568918191</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.09214055110395807</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.6076281145133614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4225012996226027</v>
+        <v>-0.545313754774299</v>
       </c>
       <c r="D9" t="n">
-        <v>-314.1583374207271</v>
+        <v>-0.651966640497447</v>
       </c>
       <c r="E9" t="n">
-        <v>49.99985231404028</v>
+        <v>0.1037637135661854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001344866162106508</v>
+        <v>0.6415777439329997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4225012996226027</v>
+        <v>-0.545313754774299</v>
       </c>
       <c r="D10" t="n">
-        <v>314.1583374207271</v>
+        <v>0.651966640497447</v>
       </c>
       <c r="E10" t="n">
-        <v>49.99985231404028</v>
+        <v>0.1037637135661854</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001344866162106508</v>
+        <v>0.6415777439329997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4992924137754288</v>
+        <v>-0.6814866134030423</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6063909499170831</v>
+        <v>6.938556693699858</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09651011712549372</v>
+        <v>1.10430559572569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6356402141647913</v>
+        <v>0.09774701066261378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4992924137754288</v>
+        <v>-0.6814866134030423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6063909499170831</v>
+        <v>-6.938556693699858</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09651011712549372</v>
+        <v>1.10430559572569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6356402141647913</v>
+        <v>0.09774701066261378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6501271704515118</v>
+        <v>-0.7997393585322227</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5930817207513854</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09439188751503011</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7387755020242471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6501271704515118</v>
+        <v>-0.7997414032715059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5930817207513854</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09439188751503011</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7387755020242471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6936806444962684</v>
+        <v>-0.7999014691040489</v>
       </c>
       <c r="D15" t="n">
-        <v>-314.1591892865042</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>49.99998789268955</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002208049221976008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6936806444962684</v>
+        <v>-0.7999131261933144</v>
       </c>
       <c r="D16" t="n">
-        <v>314.1591892865042</v>
+        <v>-8.483973875035721e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>49.99998789268955</v>
+        <v>1.350266379274437e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002208049221976008</v>
+        <v>0.999999994375512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7997148513877224</v>
+        <v>-0.7999131261933144</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.483973875035721e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.350266379274437e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.999999994375512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8000453120449391</v>
+        <v>-0.800002910437709</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -802,133 +802,133 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8962580506087696</v>
+        <v>-0.9770422627038621</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7119872495595032</v>
+        <v>-7.132083891832586</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1133162901857978</v>
+        <v>1.135106405931239</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7830032296898307</v>
+        <v>0.1357248849138172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8962580506087696</v>
+        <v>-0.9770422627038621</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7119872495595032</v>
+        <v>7.132083891832586</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1133162901857978</v>
+        <v>1.135106405931239</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7830032296898307</v>
+        <v>0.1357248849138172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9964116402013588</v>
+        <v>-1.091702393447093</v>
       </c>
       <c r="D21" t="n">
-        <v>314.1602091826555</v>
+        <v>-314.1418415446191</v>
       </c>
       <c r="E21" t="n">
-        <v>50.00015021420347</v>
+        <v>49.99722691381705</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003171651276727562</v>
+        <v>0.003475168401401568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9964116402013588</v>
+        <v>-1.091702393447093</v>
       </c>
       <c r="D22" t="n">
-        <v>-314.1602091826555</v>
+        <v>314.1418415446191</v>
       </c>
       <c r="E22" t="n">
-        <v>50.00015021420347</v>
+        <v>49.99722691381705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003171651276727562</v>
+        <v>0.003475168401401568</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.357479234486899</v>
+        <v>-1.624330476886544</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.539955573509279</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.040866257125393</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2032351109021502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.357479234486899</v>
+        <v>-1.671787955231973</v>
       </c>
       <c r="D24" t="n">
-        <v>6.539955573509279</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.040866257125393</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2032351109021502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.547964911227811</v>
+        <v>-1.673068652268946</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -942,173 +942,173 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.681264378834292</v>
+        <v>-1.712425800947777</v>
       </c>
       <c r="D26" t="n">
-        <v>5.282196794129931</v>
+        <v>-215.4916627045309</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8406877301699411</v>
+        <v>34.29656331451751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3032962757143965</v>
+        <v>0.007946347963136544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.681264378834292</v>
+        <v>-1.712425800947777</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.282196794129931</v>
+        <v>215.4916627045309</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8406877301699411</v>
+        <v>34.29656331451751</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3032962757143965</v>
+        <v>0.007946347963136544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.690225757366583</v>
+        <v>-1.961802194899668</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>314.1566671895911</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>49.99958648849888</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.00624454022428327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.691351381836447</v>
+        <v>-1.961802194899668</v>
       </c>
       <c r="D29" t="n">
-        <v>1.401922456383224</v>
+        <v>-314.1566671895911</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2231228887649221</v>
+        <v>49.99958648849888</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7699059232755373</v>
+        <v>0.00624454022428327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.691351381836447</v>
+        <v>-2.429723320968748</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.401922456383224</v>
+        <v>-314.1413486430852</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2231228887649221</v>
+        <v>49.99714846610149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7699059232755373</v>
+        <v>0.00773425930349536</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.703315894653822</v>
+        <v>-2.429723320968748</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>314.1413486430852</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>49.99714846610149</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.00773425930349536</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.212565526535568</v>
+        <v>-2.665028038995618</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.103579365574257</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3347950542172562</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.7849386480064613</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.266152195224942</v>
+        <v>-2.665028038995618</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-2.103579365574257</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.3347950542172562</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.7849386480064613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.333333333297706</v>
+        <v>-2.952932267361014</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.333333333629259</v>
+        <v>-3.031467538338519</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.333333333718244</v>
+        <v>-3.333333333283443</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-6.65682337364966e-11</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.05946634520601e-11</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1162,19 +1162,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.404195509066055</v>
+        <v>-3.333333333283443</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6.65682337364966e-11</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.05946634520601e-11</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1182,173 +1182,173 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="B38" t="n">
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.692573219048356</v>
+        <v>-3.333333333356335</v>
       </c>
       <c r="D38" t="n">
-        <v>-235.1714766401152</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>37.42870298149453</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01994986542503916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>-4.692573219048356</v>
+        <v>-4.150671480795138</v>
       </c>
       <c r="D39" t="n">
-        <v>235.1714766401152</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>37.42870298149453</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01994986542503916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n">
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.081731139223886</v>
+        <v>-5.122964142318741</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-43.32566341014174</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.89549349445972</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0.1174251408617295</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B41" t="n">
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.941623798688421</v>
+        <v>-5.122964142318741</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>43.32566341014174</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.89549349445972</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0.1174251408617295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B42" t="n">
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>-6.706437585069193</v>
+        <v>-5.160327926945291</v>
       </c>
       <c r="D42" t="n">
-        <v>32.94643630800122</v>
+        <v>27.49880333347534</v>
       </c>
       <c r="E42" t="n">
-        <v>5.243588195680689</v>
+        <v>4.37657047963449</v>
       </c>
       <c r="F42" t="n">
-        <v>0.199465305368656</v>
+        <v>0.1844370806392965</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B43" t="n">
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.706437585069193</v>
+        <v>-5.160327926945291</v>
       </c>
       <c r="D43" t="n">
-        <v>-32.94643630800122</v>
+        <v>-27.49880333347534</v>
       </c>
       <c r="E43" t="n">
-        <v>5.243588195680689</v>
+        <v>4.37657047963449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.199465305368656</v>
+        <v>0.1844370806392965</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B44" t="n">
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>-9.156115555301383</v>
+        <v>-5.34735040021522</v>
       </c>
       <c r="D44" t="n">
-        <v>313.8403662467795</v>
+        <v>290.0577373344926</v>
       </c>
       <c r="E44" t="n">
-        <v>49.94924562994579</v>
+        <v>46.16412267883509</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02916202764836573</v>
+        <v>0.01843233691414915</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>-9.156115555301383</v>
+        <v>-5.34735040021522</v>
       </c>
       <c r="D45" t="n">
-        <v>-313.8403662467795</v>
+        <v>-290.0577373344926</v>
       </c>
       <c r="E45" t="n">
-        <v>49.94924562994579</v>
+        <v>46.16412267883509</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02916202764836573</v>
+        <v>0.01843233691414915</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>-9.854850807281016</v>
+        <v>-6.004155076613198</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1362,13 +1362,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B47" t="n">
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>-9.964512679084464</v>
+        <v>-6.461738035378619</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1382,93 +1382,93 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>-9.969727915893683</v>
+        <v>-6.623258317222479</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-15.63809401019294</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2.488879962257967</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.3899966379699644</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B49" t="n">
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>-10.30865506441253</v>
+        <v>-6.623258317222479</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>15.63809401019294</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>2.488879962257967</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.3899966379699644</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B50" t="n">
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>-10.32746578611114</v>
+        <v>-9.26488634321791</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-313.1929235386862</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>49.84620192258392</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.02956910730635639</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="B51" t="n">
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.42136312027746</v>
+        <v>-9.26488634321791</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>313.1929235386862</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>49.84620192258392</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.02956910730635639</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B52" t="n">
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.45950819115205</v>
+        <v>-9.933478396302634</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B53" t="n">
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.47197551196595</v>
+        <v>-9.985803909274946</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B54" t="n">
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>-10.47197551196598</v>
+        <v>-10.30521883595457</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B55" t="n">
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>-10.47197551196599</v>
+        <v>-10.33196676230796</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1542,53 +1542,53 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B56" t="n">
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>-10.471975511966</v>
+        <v>-10.45733336366138</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.002962058422767971</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.0004714262397105057</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.9999999598842134</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B57" t="n">
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>-10.47210570952052</v>
+        <v>-10.45733336366138</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-0.002962058422767971</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.0004714262397105057</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.9999999598842134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B58" t="n">
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>-10.47227991657939</v>
+        <v>-10.46404849320956</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B59" t="n">
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>-10.47547242656246</v>
+        <v>-10.46679606525549</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="B60" t="n">
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.51935660452046</v>
+        <v>-10.47195377593896</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1642,53 +1642,53 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="B61" t="n">
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.56810483429066</v>
+        <v>-10.47197551194092</v>
       </c>
       <c r="D61" t="n">
-        <v>-313.3817633725586</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>49.87625671559738</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04325524775877995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B62" t="n">
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.56810483429066</v>
+        <v>-10.47197551196597</v>
       </c>
       <c r="D62" t="n">
-        <v>313.3817633725586</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>49.87625671559738</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04325524775877995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B63" t="n">
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>-15.07729636542517</v>
+        <v>-10.471975511966</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B64" t="n">
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>-16.67018807252455</v>
+        <v>-10.47197551196632</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1722,53 +1722,53 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B65" t="n">
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>-21.7605137936294</v>
+        <v>-10.47197551197165</v>
       </c>
       <c r="D65" t="n">
-        <v>-9.696935524435268</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1.543315221557273</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9134123573245189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B66" t="n">
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>-21.7605137936294</v>
+        <v>-10.47249311600828</v>
       </c>
       <c r="D66" t="n">
-        <v>9.696935524435268</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.543315221557273</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9134123573245189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B67" t="n">
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>-26.18349406458698</v>
+        <v>-11.78719338889781</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B68" t="n">
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>-32.50613570087573</v>
+        <v>-12.94881269465893</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1802,93 +1802,93 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B69" t="n">
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>-33.66562337578901</v>
+        <v>-13.22799358191427</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.785096864671631</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.1249520468184389</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.9982433589961791</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B70" t="n">
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>-35.95072388117188</v>
+        <v>-13.22799358191427</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-0.785096864671631</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.1249520468184389</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0.9982433589961791</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>-36.0439215691241</v>
+        <v>-13.38714473526906</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>310.0512831654289</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>49.34619432776296</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.04313700427873037</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>-40.08390542769552</v>
+        <v>-13.38714473526906</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-310.0512831654289</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>49.34619432776296</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.04313700427873037</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B73" t="n">
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>-40.0844291771888</v>
+        <v>-18.45104120048384</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1902,153 +1902,153 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B74" t="n">
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>-40.09451810337553</v>
+        <v>-24.31688569849516</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>263.9156128045558</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>42.00347433697176</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0.09175023062462369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B75" t="n">
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>-55.12244612005011</v>
+        <v>-24.31688569849516</v>
       </c>
       <c r="D75" t="n">
-        <v>-314.1151936070311</v>
+        <v>-263.9156128045558</v>
       </c>
       <c r="E75" t="n">
-        <v>49.99298576282673</v>
+        <v>42.00347433697176</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1728436398451862</v>
+        <v>0.09175023062462369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B76" t="n">
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>-55.12244612005011</v>
+        <v>-28.70273349634727</v>
       </c>
       <c r="D76" t="n">
-        <v>314.1151936070311</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>49.99298576282673</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1728436398451862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B77" t="n">
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>-62.8921506244816</v>
+        <v>-33.91111231151475</v>
       </c>
       <c r="D77" t="n">
-        <v>-450.7669599661085</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>71.74178986111266</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1381840388337629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B78" t="n">
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>-62.8921506244816</v>
+        <v>-34.81718076580447</v>
       </c>
       <c r="D78" t="n">
-        <v>450.7669599661085</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>71.74178986111266</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1381840388337629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B79" t="n">
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>-64.37956811221602</v>
+        <v>-35.46848580459363</v>
       </c>
       <c r="D79" t="n">
-        <v>-1827.613754074112</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>290.8737630236305</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03520418998536082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B80" t="n">
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>-64.37956811221602</v>
+        <v>-36.5019647409667</v>
       </c>
       <c r="D80" t="n">
-        <v>1827.613754074112</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>290.8737630236305</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03520418998536082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B81" t="n">
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>-66.71412623317623</v>
+        <v>-36.65125191444417</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2062,193 +2062,193 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B82" t="n">
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>-66.72426882747843</v>
+        <v>-38.95246423340828</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1013.568792818334</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>161.314483540723</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0.03840265314999268</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B83" t="n">
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>-66.78995662007472</v>
+        <v>-38.95246423340828</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1013.568792818334</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>161.314483540723</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0.03840265314999268</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B84" t="n">
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>-85.98224339302624</v>
+        <v>-40.08021131518255</v>
       </c>
       <c r="D84" t="n">
-        <v>923.7004751815873</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>147.0114965614822</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09268387587252457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B85" t="n">
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>-85.98224339302624</v>
+        <v>-40.08166300748842</v>
       </c>
       <c r="D85" t="n">
-        <v>-923.7004751815873</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>147.0114965614822</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09268387587252457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B86" t="n">
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>-100.3525756361974</v>
+        <v>-55.53476771740836</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>313.3069750016336</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>49.86435377667887</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.1745329268174268</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B87" t="n">
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>-100.4571177913673</v>
+        <v>-55.53476771740836</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-313.3069750016336</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>49.86435377667887</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0.1745329268174268</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B88" t="n">
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>-101.1439286768068</v>
+        <v>-64.98931928657777</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2036.939445528574</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>324.188981534737</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.03188914949064512</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B89" t="n">
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>-138.1195410835906</v>
+        <v>-64.98931928657777</v>
       </c>
       <c r="D89" t="n">
-        <v>1648.239447453123</v>
+        <v>-2036.939445528574</v>
       </c>
       <c r="E89" t="n">
-        <v>262.3254554612188</v>
+        <v>324.188981534737</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08350554460537031</v>
+        <v>0.03188914949064512</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>-138.1195410835906</v>
+        <v>-66.69137270052614</v>
       </c>
       <c r="D90" t="n">
-        <v>-1648.239447453123</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>262.3254554612188</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08350554460537031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>-192.7534479053205</v>
+        <v>-66.70352870294646</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2262,53 +2262,53 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B92" t="n">
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>-221.1664773738139</v>
+        <v>-66.71972648912725</v>
       </c>
       <c r="D92" t="n">
-        <v>-5216.416661375919</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>830.2184968848991</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04236010549656315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B93" t="n">
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>-221.1664773738139</v>
+        <v>-100.156607970094</v>
       </c>
       <c r="D93" t="n">
-        <v>5216.416661375919</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>830.2184968848991</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04236010549656315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B94" t="n">
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>-227.3121104587656</v>
+        <v>-100.2634420966716</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2322,562 +2322,562 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B95" t="n">
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>-230.2971531456353</v>
+        <v>-100.4026077831347</v>
       </c>
       <c r="D95" t="n">
-        <v>-5840.978561229135</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>929.6206105134038</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03939722675670461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B96" t="n">
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>-230.2971531456353</v>
+        <v>-219.0340636774895</v>
       </c>
       <c r="D96" t="n">
-        <v>5840.978561229135</v>
+        <v>-2697.802461550107</v>
       </c>
       <c r="E96" t="n">
-        <v>929.6206105134038</v>
+        <v>429.3685972411824</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03939722675670461</v>
+        <v>0.08092353076189063</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B97" t="n">
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>-234.8968092672941</v>
+        <v>-219.0340636774895</v>
       </c>
       <c r="D97" t="n">
-        <v>4009.865295125388</v>
+        <v>2697.802461550107</v>
       </c>
       <c r="E97" t="n">
-        <v>638.1898828518472</v>
+        <v>429.3685972411824</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05847947305894961</v>
+        <v>0.08092353076189063</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B98" t="n">
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>-234.8968092672941</v>
+        <v>-279.0334671696373</v>
       </c>
       <c r="D98" t="n">
-        <v>-4009.865295125388</v>
+        <v>-37.86193535584872</v>
       </c>
       <c r="E98" t="n">
-        <v>638.1898828518472</v>
+        <v>6.025914166909123</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05847947305894961</v>
+        <v>0.9909193697562423</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B99" t="n">
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>-246.5813744997729</v>
+        <v>-279.0334671696373</v>
       </c>
       <c r="D99" t="n">
-        <v>4629.258509371685</v>
+        <v>37.86193535584872</v>
       </c>
       <c r="E99" t="n">
-        <v>736.7693746167229</v>
+        <v>6.025914166909123</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05319044293084532</v>
+        <v>0.9909193697562423</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B100" t="n">
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>-246.5813744997729</v>
+        <v>-308.5021812477876</v>
       </c>
       <c r="D100" t="n">
-        <v>-4629.258509371685</v>
+        <v>-19.15683173642969</v>
       </c>
       <c r="E100" t="n">
-        <v>736.7693746167229</v>
+        <v>3.048904464832483</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05319044293084532</v>
+        <v>0.9980775849937524</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B101" t="n">
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>-254.5633293819562</v>
+        <v>-308.5021812477876</v>
       </c>
       <c r="D101" t="n">
-        <v>-4826.697010103067</v>
+        <v>19.15683173642969</v>
       </c>
       <c r="E101" t="n">
-        <v>768.1926879647751</v>
+        <v>3.048904464832483</v>
       </c>
       <c r="F101" t="n">
-        <v>0.05266749115720292</v>
+        <v>0.9980775849937524</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B102" t="n">
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>-254.5633293819562</v>
+        <v>-325.9729199568032</v>
       </c>
       <c r="D102" t="n">
-        <v>4826.697010103067</v>
+        <v>-1613.121878124239</v>
       </c>
       <c r="E102" t="n">
-        <v>768.1926879647751</v>
+        <v>256.7363207131547</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05266749115720292</v>
+        <v>0.1980721763754432</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B103" t="n">
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>-255.9373616736568</v>
+        <v>-325.9729199568032</v>
       </c>
       <c r="D103" t="n">
-        <v>2183.555732277429</v>
+        <v>1613.121878124239</v>
       </c>
       <c r="E103" t="n">
-        <v>347.523688308596</v>
+        <v>256.7363207131547</v>
       </c>
       <c r="F103" t="n">
-        <v>0.116414329377808</v>
+        <v>0.1980721763754432</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B104" t="n">
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>-255.9373616736568</v>
+        <v>-388.6976700361495</v>
       </c>
       <c r="D104" t="n">
-        <v>-2183.555732277429</v>
+        <v>-4670.239052747694</v>
       </c>
       <c r="E104" t="n">
-        <v>347.523688308596</v>
+        <v>743.2916306656064</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116414329377808</v>
+        <v>0.08294187167990658</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B105" t="n">
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>-259.7600473424127</v>
+        <v>-388.6976700361495</v>
       </c>
       <c r="D105" t="n">
-        <v>-5450.945425742489</v>
+        <v>4670.239052747694</v>
       </c>
       <c r="E105" t="n">
-        <v>867.544909031073</v>
+        <v>743.2916306656064</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04760011004935475</v>
+        <v>0.08294187167990658</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B106" t="n">
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>-259.7600473424127</v>
+        <v>-391.071021421054</v>
       </c>
       <c r="D106" t="n">
-        <v>5450.945425742489</v>
+        <v>5304.344050976497</v>
       </c>
       <c r="E106" t="n">
-        <v>867.544909031073</v>
+        <v>844.2125755729979</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04760011004935475</v>
+        <v>0.07352699546885388</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B107" t="n">
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>-288.8556194018753</v>
+        <v>-391.071021421054</v>
       </c>
       <c r="D107" t="n">
-        <v>15.63444484277033</v>
+        <v>-5304.344050976497</v>
       </c>
       <c r="E107" t="n">
-        <v>2.488299179224489</v>
+        <v>844.2125755729979</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9985384275427902</v>
+        <v>0.07352699546885388</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B108" t="n">
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>-288.8556194018753</v>
+        <v>-572.8404204471542</v>
       </c>
       <c r="D108" t="n">
-        <v>-15.63444484277033</v>
+        <v>3189.32701662287</v>
       </c>
       <c r="E108" t="n">
-        <v>2.488299179224489</v>
+        <v>507.5971598320573</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9985384275427902</v>
+        <v>0.1767827876785796</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B109" t="n">
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>-299.4241870521411</v>
+        <v>-572.8404204471542</v>
       </c>
       <c r="D109" t="n">
-        <v>8.296682451749449</v>
+        <v>-3189.32701662287</v>
       </c>
       <c r="E109" t="n">
-        <v>1.32045802345971</v>
+        <v>507.5971598320573</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9996163323434676</v>
+        <v>0.1767827876785796</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B110" t="n">
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>-299.4241870521411</v>
+        <v>-633.6550765256161</v>
       </c>
       <c r="D110" t="n">
-        <v>-8.296682451749449</v>
+        <v>-5712.222234673661</v>
       </c>
       <c r="E110" t="n">
-        <v>1.32045802345971</v>
+        <v>909.1284046877457</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9996163323434676</v>
+        <v>0.1102534141721112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B111" t="n">
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>-352.596560339515</v>
+        <v>-633.6550765256161</v>
       </c>
       <c r="D111" t="n">
-        <v>2812.224360964398</v>
+        <v>5712.222234673661</v>
       </c>
       <c r="E111" t="n">
-        <v>447.5794081309305</v>
+        <v>909.1284046877457</v>
       </c>
       <c r="F111" t="n">
-        <v>0.124405927932218</v>
+        <v>0.1102534141721112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B112" t="n">
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>-352.596560339515</v>
+        <v>-716.8852934464219</v>
       </c>
       <c r="D112" t="n">
-        <v>-2812.224360964398</v>
+        <v>5006.897846199522</v>
       </c>
       <c r="E112" t="n">
-        <v>447.5794081309305</v>
+        <v>796.8725417788183</v>
       </c>
       <c r="F112" t="n">
-        <v>0.124405927932218</v>
+        <v>0.1417341016295531</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B113" t="n">
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>-441.1318953844427</v>
+        <v>-716.8852934464219</v>
       </c>
       <c r="D113" t="n">
-        <v>2881.279537336437</v>
+        <v>-5006.897846199522</v>
       </c>
       <c r="E113" t="n">
-        <v>458.5698807966232</v>
+        <v>796.8725417788183</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1513393185091196</v>
+        <v>0.1417341016295531</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B114" t="n">
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>-441.1318953844427</v>
+        <v>-723.8691729814332</v>
       </c>
       <c r="D114" t="n">
-        <v>-2881.279537336437</v>
+        <v>-3792.75138776047</v>
       </c>
       <c r="E114" t="n">
-        <v>458.5698807966232</v>
+        <v>603.6351312807246</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1513393185091196</v>
+        <v>0.1874720626252697</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B115" t="n">
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>-465.1464052454268</v>
+        <v>-723.8691729814332</v>
       </c>
       <c r="D115" t="n">
-        <v>-3501.57726690028</v>
+        <v>3792.75138776047</v>
       </c>
       <c r="E115" t="n">
-        <v>557.2933306453884</v>
+        <v>603.6351312807246</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1316823417439671</v>
+        <v>0.1874720626252697</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B116" t="n">
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>-465.1464052454268</v>
+        <v>-795.7365269847219</v>
       </c>
       <c r="D116" t="n">
-        <v>3501.57726690028</v>
+        <v>-3199.640520423271</v>
       </c>
       <c r="E116" t="n">
-        <v>557.2933306453884</v>
+        <v>509.2386049424882</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1316823417439671</v>
+        <v>0.2413440642586757</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B117" t="n">
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>-476.7628355077382</v>
+        <v>-795.7365269847219</v>
       </c>
       <c r="D117" t="n">
-        <v>2294.920823056013</v>
+        <v>3199.640520423271</v>
       </c>
       <c r="E117" t="n">
-        <v>365.2479929938854</v>
+        <v>509.2386049424882</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2034039929509554</v>
+        <v>0.2413440642586757</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B118" t="n">
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>-476.7628355077382</v>
+        <v>-866.2648470234046</v>
       </c>
       <c r="D118" t="n">
-        <v>-2294.920823056013</v>
+        <v>2599.663631538358</v>
       </c>
       <c r="E118" t="n">
-        <v>365.2479929938854</v>
+        <v>413.7493173355573</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2034039929509554</v>
+        <v>0.3161326152891202</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B119" t="n">
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>-502.4841455399299</v>
+        <v>-866.2648470234046</v>
       </c>
       <c r="D119" t="n">
-        <v>2928.609880865267</v>
+        <v>-2599.663631538358</v>
       </c>
       <c r="E119" t="n">
-        <v>466.1027389274739</v>
+        <v>413.7493173355573</v>
       </c>
       <c r="F119" t="n">
-        <v>0.169106597344933</v>
+        <v>0.3161326152891202</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B120" t="n">
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>-502.4841455399299</v>
+        <v>-967.5758718503538</v>
       </c>
       <c r="D120" t="n">
-        <v>-2928.609880865267</v>
+        <v>-1839.851532244409</v>
       </c>
       <c r="E120" t="n">
-        <v>466.1027389274739</v>
+        <v>292.8214659118953</v>
       </c>
       <c r="F120" t="n">
-        <v>0.169106597344933</v>
+        <v>0.4654574603494472</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B121" t="n">
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>-986.5607863262053</v>
+        <v>-967.5758718503538</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1839.851532244409</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>292.8214659118953</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0.4654574603494472</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B122" t="n">
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>-999.9999999999997</v>
+        <v>-998.9326096257829</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1275.110315166045</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>202.9401096461406</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0.6166987786218499</v>
       </c>
     </row>
     <row r="123">
@@ -2888,33 +2888,33 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>-1000.000000000002</v>
+        <v>-998.9326096257829</v>
       </c>
       <c r="D123" t="n">
-        <v>1.207705288751469e-11</v>
+        <v>-1275.110315166045</v>
       </c>
       <c r="E123" t="n">
-        <v>1.92212266503021e-12</v>
+        <v>202.9401096461406</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0.6166987786218499</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B124" t="n">
         <v>123</v>
       </c>
       <c r="C124" t="n">
-        <v>-1000.000000000002</v>
+        <v>-999.9999999999977</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.207705288751469e-11</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1.92212266503021e-12</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B125" t="n">
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>-1009.608968253762</v>
+        <v>-999.9999999999982</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2942,321 +2942,641 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B126" t="n">
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>-1546.274993474539</v>
+        <v>-1187.759952299748</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-4168.523615559242</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>663.4411388115529</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0.2740285209377423</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B127" t="n">
         <v>126</v>
       </c>
       <c r="C127" t="n">
-        <v>-1632.489169561263</v>
+        <v>-1187.759952299748</v>
       </c>
       <c r="D127" t="n">
-        <v>4694.094326629655</v>
+        <v>4168.523615559242</v>
       </c>
       <c r="E127" t="n">
-        <v>747.0883154227316</v>
+        <v>663.4411388115529</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3284776724940959</v>
+        <v>0.2740285209377423</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B128" t="n">
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>-1632.489169561263</v>
+        <v>-1231.737939281285</v>
       </c>
       <c r="D128" t="n">
-        <v>-4694.094326629655</v>
+        <v>-4450.308261966858</v>
       </c>
       <c r="E128" t="n">
-        <v>747.0883154227316</v>
+        <v>708.2885581747269</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3284776724940959</v>
+        <v>0.2667473118777429</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B129" t="n">
         <v>128</v>
       </c>
       <c r="C129" t="n">
-        <v>-1685.3517154456</v>
+        <v>-1231.737939281285</v>
       </c>
       <c r="D129" t="n">
-        <v>4324.687669764259</v>
+        <v>4450.308261966858</v>
       </c>
       <c r="E129" t="n">
-        <v>688.2954199715522</v>
+        <v>708.2885581747269</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3631065571332855</v>
+        <v>0.2667473118777429</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B130" t="n">
         <v>129</v>
       </c>
       <c r="C130" t="n">
-        <v>-1685.3517154456</v>
+        <v>-1256.974229090905</v>
       </c>
       <c r="D130" t="n">
-        <v>-4324.687669764259</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>688.2954199715522</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3631065571332855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B131" t="n">
         <v>130</v>
       </c>
       <c r="C131" t="n">
-        <v>-9995.422995607567</v>
+        <v>-1314.248766388162</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.190849648539017</v>
+        <v>2402.202490026082</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3486845511361261</v>
+        <v>382.3224005953104</v>
       </c>
       <c r="F131" t="n">
-        <v>0.999999975978906</v>
+        <v>0.4799653450964259</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B132" t="n">
         <v>131</v>
       </c>
       <c r="C132" t="n">
-        <v>-9995.422995607567</v>
+        <v>-1314.248766388162</v>
       </c>
       <c r="D132" t="n">
-        <v>2.190849648539017</v>
+        <v>-2402.202490026082</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3486845511361261</v>
+        <v>382.3224005953104</v>
       </c>
       <c r="F132" t="n">
-        <v>0.999999975978906</v>
+        <v>0.4799653450964259</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B133" t="n">
         <v>132</v>
       </c>
       <c r="C133" t="n">
-        <v>-19765.08800356629</v>
+        <v>-1319.467696229231</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1769.525879303093</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>281.6287906201198</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0.5977718476753766</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B134" t="n">
         <v>133</v>
       </c>
       <c r="C134" t="n">
-        <v>-22185.70115287858</v>
+        <v>-1319.467696229231</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-1769.525879303093</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>281.6287906201198</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0.5977718476753766</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B135" t="n">
         <v>134</v>
       </c>
       <c r="C135" t="n">
-        <v>-22348.98571239893</v>
+        <v>-1430.007010673774</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>-4960.846616997181</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>789.5432610158078</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0.2769806826943244</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B136" t="n">
         <v>135</v>
       </c>
       <c r="C136" t="n">
-        <v>-1319477.021801821</v>
+        <v>-1430.007010673774</v>
       </c>
       <c r="D136" t="n">
-        <v>-314.1423908160152</v>
+        <v>4960.846616997181</v>
       </c>
       <c r="E136" t="n">
-        <v>49.99731433307484</v>
+        <v>789.5432610158078</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9999999716587232</v>
+        <v>0.2769806826943244</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B137" t="n">
         <v>136</v>
       </c>
       <c r="C137" t="n">
-        <v>-1319477.021801821</v>
+        <v>-1432.022512817769</v>
       </c>
       <c r="D137" t="n">
-        <v>314.1423908160152</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>49.99731433307484</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9999999716587232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B138" t="n">
         <v>137</v>
       </c>
       <c r="C138" t="n">
-        <v>-1319477.333134677</v>
+        <v>-1557.821611872303</v>
       </c>
       <c r="D138" t="n">
-        <v>-314.1423909996122</v>
+        <v>4551.445890487736</v>
       </c>
       <c r="E138" t="n">
-        <v>49.99731436229521</v>
+        <v>724.3851116864165</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9999999716587367</v>
+        <v>0.3238268757728164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B139" t="n">
         <v>138</v>
       </c>
       <c r="C139" t="n">
-        <v>-1319477.333134677</v>
+        <v>-1557.821611872303</v>
       </c>
       <c r="D139" t="n">
-        <v>314.1423909996122</v>
+        <v>-4551.445890487736</v>
       </c>
       <c r="E139" t="n">
-        <v>49.99731436229521</v>
+        <v>724.3851116864165</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9999999716587367</v>
+        <v>0.3238268757728164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B140" t="n">
         <v>139</v>
       </c>
       <c r="C140" t="n">
-        <v>-1319477.934159478</v>
+        <v>-1663.636755117602</v>
       </c>
       <c r="D140" t="n">
-        <v>-314.1423905529729</v>
+        <v>4702.773144052301</v>
       </c>
       <c r="E140" t="n">
-        <v>49.99731429121037</v>
+        <v>748.4695921157378</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9999999716587623</v>
+        <v>0.3335035667627014</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B141" t="n">
         <v>140</v>
       </c>
       <c r="C141" t="n">
-        <v>-1319477.934159478</v>
+        <v>-1663.636755117602</v>
       </c>
       <c r="D141" t="n">
-        <v>314.1423905529729</v>
+        <v>-4702.773144052301</v>
       </c>
       <c r="E141" t="n">
-        <v>49.99731429121037</v>
+        <v>748.4695921157378</v>
       </c>
       <c r="F141" t="n">
+        <v>0.3335035667627014</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1716.759718856758</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4328.524443678799</v>
+      </c>
+      <c r="E142" t="n">
+        <v>688.9060615055772</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.3686769162416179</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-1716.759718856758</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-4328.524443678799</v>
+      </c>
+      <c r="E143" t="n">
+        <v>688.9060615055772</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.3686769162416179</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-9995.385726108805</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-2.206570850043244</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.3511866580668677</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.999999975632744</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-9995.385726108805</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.206570850043244</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.3511866580668677</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.999999975632744</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-9995.64454997229</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.099206429575239</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.3340990798371879</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9999999779474569</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-9995.64454997229</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-2.099206429575239</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.3340990798371879</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9999999779474569</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-9995.781872718941</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-2.039886401606952</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.3246580041616857</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9999999791767545</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-9995.781872718941</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.039886401606952</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.3246580041616857</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9999999791767545</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-22987.3237009852</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-23556.63702587912</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>151</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-1319477.021802784</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-314.1423936852185</v>
+      </c>
+      <c r="E152" t="n">
+        <v>49.99731478972274</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9999999716587226</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>152</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1319477.021802784</v>
+      </c>
+      <c r="D153" t="n">
+        <v>314.1423936852185</v>
+      </c>
+      <c r="E153" t="n">
+        <v>49.99731478972274</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.9999999716587226</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="n">
+        <v>153</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-1319477.333135128</v>
+      </c>
+      <c r="D154" t="n">
+        <v>314.1423908567487</v>
+      </c>
+      <c r="E154" t="n">
+        <v>49.99731433955778</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9999999716587367</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B155" t="n">
+        <v>154</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-1319477.333135128</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-314.1423908567487</v>
+      </c>
+      <c r="E155" t="n">
+        <v>49.99731433955778</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9999999716587367</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" t="n">
+        <v>155</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-1319477.934157371</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-314.1423910478042</v>
+      </c>
+      <c r="E156" t="n">
+        <v>49.99731436996521</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.9999999716587623</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B157" t="n">
+        <v>156</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-1319477.934157371</v>
+      </c>
+      <c r="D157" t="n">
+        <v>314.1423910478042</v>
+      </c>
+      <c r="E157" t="n">
+        <v>49.99731436996521</v>
+      </c>
+      <c r="F157" t="n">
         <v>0.9999999716587623</v>
       </c>
     </row>
